--- a/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_Low methylated DNA_2/CDH1_Low methylated DNA_2_bisconv_table.xlsx
+++ b/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_Low methylated DNA_2/CDH1_Low methylated DNA_2_bisconv_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
   </si>
 </sst>
 </file>
@@ -800,17 +797,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="n">
-        <v>19</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_Low methylated DNA_2/CDH1_Low methylated DNA_2_bisconv_table.xlsx
+++ b/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_Low methylated DNA_2/CDH1_Low methylated DNA_2_bisconv_table.xlsx
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -516,10 +516,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -527,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -560,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -571,10 +571,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="13">
@@ -582,10 +582,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="14">
@@ -593,10 +593,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15">
@@ -604,10 +604,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="16">
@@ -615,10 +615,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -648,10 +648,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="20">
@@ -659,10 +659,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="21">
@@ -670,10 +670,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="22">
@@ -681,10 +681,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -692,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -703,10 +703,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25">
@@ -714,10 +714,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C25" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -736,10 +736,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="28">
@@ -747,10 +747,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="29">
@@ -758,7 +758,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="31">
@@ -780,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
